--- a/testData/application_test_data.xlsx
+++ b/testData/application_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="add_app" sheetId="2" r:id="rId1"/>
@@ -209,10 +209,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>请输入IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>asd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -350,10 +346,6 @@
     <t>root.124</t>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>添加普通账号不绑定用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -412,6 +404,14 @@
   </si>
   <si>
     <t>删除账号3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyrapp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,6 +448,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -888,7 +889,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -907,10 +908,10 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>9</v>
@@ -963,10 +964,10 @@
         <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1190,34 +1191,34 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>95</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>8</v>
@@ -1251,7 +1252,7 @@
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1304,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1322,10 +1323,10 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>9</v>
@@ -1357,7 +1358,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
@@ -1377,7 +1378,7 @@
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1407,7 +1408,7 @@
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1415,14 +1416,14 @@
         <v>46</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>48</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>21</v>
@@ -1435,7 +1436,7 @@
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1443,7 +1444,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>22</v>
@@ -1463,7 +1464,7 @@
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1471,7 +1472,7 @@
         <v>26</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>22</v>
@@ -1491,7 +1492,7 @@
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1499,7 +1500,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>22</v>
@@ -1517,7 +1518,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1525,7 +1526,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>22</v>
@@ -1545,7 +1546,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1553,7 +1554,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>22</v>
@@ -1575,15 +1576,15 @@
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>16</v>
@@ -1605,7 +1606,7 @@
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1620,7 +1621,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1632,10 +1633,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>9</v>
@@ -1646,38 +1647,38 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1707,10 +1708,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>9</v>
@@ -1721,7 +1722,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>30</v>
@@ -1730,7 +1731,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1744,7 +1745,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1761,10 +1762,10 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>9</v>
@@ -1779,7 +1780,7 @@
         <v>34</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>31</v>
@@ -1787,7 +1788,7 @@
     </row>
     <row r="2" spans="1:8" ht="13.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -1796,69 +1797,69 @@
         <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="13.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1893,10 +1894,10 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>9</v>
@@ -1925,10 +1926,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>36</v>
@@ -1936,7 +1937,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1949,8 +1950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1964,16 +1965,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>0</v>
@@ -1987,13 +1988,13 @@
         <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
